--- a/biology/Médecine/Hôpital_régional_de_Yagoua/Hôpital_régional_de_Yagoua.xlsx
+++ b/biology/Médecine/Hôpital_régional_de_Yagoua/Hôpital_régional_de_Yagoua.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_r%C3%A9gional_de_Yagoua</t>
+          <t>Hôpital_régional_de_Yagoua</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Hôpital régional de Yagoua, encore appelé Hôpital régional annexe de Yagoua, en abrégé HRY, est un hôpital public à Yagoua dans la région de l'Extrême-Nord du Cameroun.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_r%C3%A9gional_de_Yagoua</t>
+          <t>Hôpital_régional_de_Yagoua</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire de l’hôpital</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital régional de Yagoua est construit en 1993[1],[2]. Il s'appelle autrefois hôpital provincial de Yagoua[3].
-En 2020, le projet de construction d'un pont entre Yagoua et Bongor prévoit fournir en équipement l'hôpital[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital régional de Yagoua est construit en 1993,. Il s'appelle autrefois hôpital provincial de Yagoua.
+En 2020, le projet de construction d'un pont entre Yagoua et Bongor prévoit fournir en équipement l'hôpital.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_r%C3%A9gional_de_Yagoua</t>
+          <t>Hôpital_régional_de_Yagoua</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Services de l'hôpital</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital compte un service de pédiatrie, de néphrologie, de chirurgie, un centre d’hémodialyse et des ambulances[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital compte un service de pédiatrie, de néphrologie, de chirurgie, un centre d’hémodialyse et des ambulances.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_r%C3%A9gional_de_Yagoua</t>
+          <t>Hôpital_régional_de_Yagoua</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,12 @@
           <t>Risques sanitaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital s'est engagé dans la riposte au Covid-19 par un dispositif de prise en charge[2]. son premier cas a été signalé le 11 juin 2020[2].
-Il est compté parmi les centres de vaccination anti-COVID19 au Cameroun[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital s'est engagé dans la riposte au Covid-19 par un dispositif de prise en charge. son premier cas a été signalé le 11 juin 2020.
+Il est compté parmi les centres de vaccination anti-COVID19 au Cameroun.
 </t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_r%C3%A9gional_de_Yagoua</t>
+          <t>Hôpital_régional_de_Yagoua</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,9 +625,11 @@
           <t>Collaborations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il bénéficie d'un partenariat avec Ophtalmologues Sans Frontière (OSF)[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il bénéficie d'un partenariat avec Ophtalmologues Sans Frontière (OSF).
 </t>
         </is>
       </c>
